--- a/問答題庫範本.xlsx
+++ b/問答題庫範本.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,32 +481,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>安全題</t>
+          <t>環保題</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>正確戴安全帽應該？</t>
+          <t>減少塑膠使用最有效的方法是？</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>前端翹起</t>
+          <t>自備環保袋</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>固定帽帶</t>
+          <t>使用免洗餐具</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>不戴比較舒服</t>
+          <t>購買瓶裝水</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -517,27 +517,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>健康題</t>
+          <t>環保題</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>每日建議飲水量約是多少？</t>
+          <t>資源回收的3R原則不包括？</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>200c.c.</t>
+          <t>Reduce減量</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1000c.c.</t>
+          <t>Reuse再利用</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2000c.c.</t>
+          <t>Remove移除</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -545,11 +545,7 @@
           <t>C</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -557,32 +553,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>環境題</t>
+          <t>環保題</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>下列何者為可回收物？</t>
+          <t>哪種能源屬於再生能源？</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>寶特瓶</t>
+          <t>煤炭</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>衛生紙</t>
+          <t>太陽能</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>廚餘</t>
+          <t>天然氣</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -593,27 +589,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>安全題</t>
+          <t>環保題</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>進入施工區域需穿戴什麼？</t>
+          <t>減少碳足跡可以透過？</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>拖鞋</t>
+          <t>多開車</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>反光背心與安全帽</t>
+          <t>多搭乘大眾運輸</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>輕便服裝</t>
+          <t>增加用電</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -621,11 +617,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -633,27 +625,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>健康題</t>
+          <t>環保題</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>每日睡眠建議時間為？</t>
+          <t>哪種行為最不環保？</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3小時</t>
+          <t>雙面列印</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5小時</t>
+          <t>隨手關燈</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8小時</t>
+          <t>一次性用品</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -669,32 +661,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>環境題</t>
+          <t>環保題</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>以下何者有助減少碳足跡？</t>
+          <t>廚餘屬於哪種垃圾？</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>每天開車</t>
+          <t>一般垃圾</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>步行或騎車</t>
+          <t>資源回收</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>多搭飛機</t>
+          <t>有機廢棄物</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -705,32 +697,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>安全題</t>
+          <t>環保題</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>使用樓梯時應？</t>
+          <t>省水的好方法不包括？</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>快步行走</t>
+          <t>洗澡改淋浴</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>慢慢移動</t>
+          <t>水龍頭常開</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>邊用手機邊走</t>
+          <t>使用省水器</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -741,27 +733,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>健康題</t>
+          <t>環保題</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>健康早餐應包含哪些？</t>
+          <t>綠色消費的概念是？</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>高糖分食物</t>
+          <t>買綠色商品</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>蔬果、蛋白質</t>
+          <t>購買環保產品</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>速食漢堡</t>
+          <t>多買多省</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -769,7 +761,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -777,27 +773,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>環境題</t>
+          <t>環保題</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>避免塑膠污染的方法為？</t>
+          <t>地球暖化主要是因為？</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>多用免洗餐具</t>
+          <t>太陽變大</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>焚燒垃圾</t>
+          <t>溫室氣體增加</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>增加用電量</t>
+          <t>地球變小</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -805,11 +801,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -817,27 +809,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>安全題</t>
+          <t>環保題</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>火災時第一步應該？</t>
+          <t>哪種材質最難分解？</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>打開窗戶</t>
+          <t>紙類</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>通知他人</t>
+          <t>塑膠</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>往火場衝</t>
+          <t>木材</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -853,27 +845,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>健康題</t>
+          <t>安全題</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>避免久坐應每隔多久起身？</t>
+          <t>過馬路時應該？</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>每4小時</t>
+          <t>低頭滑手機</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>每2小時</t>
+          <t>左右察看</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>每6小時</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -881,11 +873,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -893,27 +881,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>環境題</t>
+          <t>安全題</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>節約用水的方式？</t>
+          <t>搭乘機車應該？</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>多開水龍頭</t>
+          <t>不戴安全帽</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>關水龍頭</t>
+          <t>戴安全帽</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>洗澡開強水柱</t>
+          <t>站著乘坐</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -921,11 +909,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -938,22 +922,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>搬運重物時應？</t>
+          <t>發現瓦斯外洩應該？</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>彎腰搬重物</t>
+          <t>開燈檢查</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>背部挺直用腿施力</t>
+          <t>開窗通風</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>直接拉抬</t>
+          <t>點火測試</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -961,7 +945,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -969,27 +957,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>健康題</t>
+          <t>安全題</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>維持心血管健康的方法？</t>
+          <t>使用電器時不應該？</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>高油飲食</t>
+          <t>乾手操作</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>多運動</t>
+          <t>濕手操作</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>抽煙紓壓</t>
+          <t>斷電維修</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1005,27 +993,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>環境題</t>
+          <t>安全題</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>保護森林的方法為？</t>
+          <t>登山時應該？</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>砍伐老樹</t>
+          <t>穿拖鞋</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>禁止獵捕</t>
+          <t>穿運動鞋</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>放任開墾</t>
+          <t>赤腳</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1046,27 +1034,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>使用電動工具前應該？</t>
+          <t>游泳前應該？</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>不檢查工具</t>
+          <t>暖身運動</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>檢查工具與電線</t>
+          <t>立即下水</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>借用未檢修工具</t>
+          <t>吃飽就游</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1077,27 +1065,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>健康題</t>
+          <t>安全題</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>保持身體健康的飲食習慣為？</t>
+          <t>夜間行走應該？</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>高糖高鹽</t>
+          <t>穿深色衣服</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>均衡飲食</t>
+          <t>穿反光衣物</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>只吃肉類</t>
+          <t>不帶手電筒</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1113,27 +1101,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>環境題</t>
+          <t>安全題</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>推動環保的正確行為是？</t>
+          <t>乘坐電梯遇到故障應該？</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>亂丟垃圾</t>
+          <t>強行開門</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>資源分類回收</t>
+          <t>按緊急鈴</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>隨意丟棄垃圾</t>
+          <t>跳躍求救</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1154,22 +1142,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>使用梯子時應注意？</t>
+          <t>使用刀具時應該？</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>單腳站立</t>
+          <t>刀刃朝自己</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>兩人協助</t>
+          <t>刀刃朝外</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>快速攀爬</t>
+          <t>隨意放置</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1185,27 +1173,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>健康題</t>
+          <t>安全題</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>預防感冒最有效的方法為？</t>
+          <t>發現有人觸電應該？</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>服用抗生素</t>
+          <t>直接拉人</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>戴口罩與勤洗手</t>
+          <t>切斷電源</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>關窗戶</t>
+          <t>用水潑</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1213,11 +1201,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1225,32 +1209,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>環保題</t>
+          <t>衛生題</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>下列何者是最環保的交通方式？</t>
+          <t>飯前應該做什麼？</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>開車</t>
+          <t>洗手</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>騎機車</t>
+          <t>玩手機</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>騎腳踏車</t>
+          <t>不洗手</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1261,35 +1245,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>環保題</t>
+          <t>衛生題</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>塑膠袋分解需要多長時間？</t>
+          <t>正確洗手時間至少？</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1年</t>
+          <t>5秒</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10年</t>
+          <t>20秒</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>100年以上</t>
+          <t>1分鐘</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1297,27 +1285,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>環保題</t>
+          <t>衛生題</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>下列何者可以減少碳足跡？</t>
+          <t>咳嗽時應該？</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>多吃肉類</t>
+          <t>用手遮</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>使用LED燈泡</t>
+          <t>用手肘遮</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>常開冷氣</t>
+          <t>不遮</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1333,27 +1321,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>環保題</t>
+          <t>衛生題</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>回收紙張前應該怎麼處理？</t>
+          <t>牙刷應多久更換一次？</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>撕成小片</t>
+          <t>1個月</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>移除膠帶和釘書針</t>
+          <t>3個月</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>用水沖洗</t>
+          <t>1年</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1369,39 +1357,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>防災題</t>
+          <t>衛生題</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>地震時最安全的避難位置是？</t>
+          <t>食物中毒症狀是？</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>躲在桌子下方</t>
+          <t>頭痛</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>跑到陽台</t>
+          <t>腹瀉嘔吐</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>躲在門框下</t>
+          <t>流鼻血</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1409,27 +1393,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>防災題</t>
+          <t>衛生題</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>火災逃生時應該？</t>
+          <t>毛巾應該？</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>搭乘電梯</t>
+          <t>共用</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>走樓梯並摀住口鼻</t>
+          <t>個人專用</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>開窗透氣</t>
+          <t>不用洗</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1437,11 +1421,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1449,32 +1429,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>防災題</t>
+          <t>衛生題</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>颱風來臨前應該準備？</t>
+          <t>廁所使用後應該？</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>手電筒和電池</t>
+          <t>不沖水</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>修剪樹枝</t>
+          <t>沖水</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>以上皆是</t>
+          <t>不洗手</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1485,39 +1465,839 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>衛生題</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>食品保存應該？</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>室溫保存</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>冷藏保存</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>陽光曝曬</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>衛生題</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>剪指甲的頻率應該？</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>每天</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>每週</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>每年</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>衛生題</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>口罩應該？</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>重複使用</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>定期更換</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>不戴</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>健康題</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>每天應該喝多少水？</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>500c.c.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1000c.c.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2000c.c.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>健康題</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>每天應該睡多少小時？</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3小時</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5小時</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8小時</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>健康題</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>運動前應該？</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>暖身</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>立即劇烈運動</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>吃飽就運動</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>健康題</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>健康的BMI值範圍是？</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>18.5-24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>30-35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>健康題</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>哪種食物富含維生素C？</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>肉類</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>柳橙</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>油炸物</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>健康題</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>預防近視應該？</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>長時間看書</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>適度休息</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>關燈看書</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>健康題</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>壓力大時應該？</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>暴飲暴食</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>適度運動</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>不睡覺</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>健康題</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>健康早餐應包含？</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>只喝咖啡</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>均衡營養</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>不吃</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>健康題</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>預防感冒應該？</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>不洗手</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>規律作息</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>熬夜</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>健康題</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>運動後應該？</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>立即洗冷水</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>補充水分</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>不休息</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>防災題</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>家中應準備的緊急用品包括？</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>飲用水和食物</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>收音機</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>以上皆是</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>地震發生時正確的避難方式是？</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>立刻往外跑</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>躲在桌下</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>站在窗邊</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>防災題</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>火災發生時應該？</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>搭電梯逃生</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>走樓梯逃生</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>躲在房間</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>防災題</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>颱風來臨前應該做什麼？</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>準備緊急物資</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>外出遊玩</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>打開所有窗戶</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>防災題</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>滅火器使用口訣是？</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>拉瞄壓掃</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>推拉轉壓</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>開關上下</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>防災題</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>緊急避難包應放在？</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>倉庫深處</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>容易拿取處</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>車庫內</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>防災題</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>淹水時應往哪裡避難？</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>地下室</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>一樓</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>高樓層</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>防災題</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>停電時不應該做什麼？</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>使用手電筒</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>點蠟燭後離開</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>關閉電器</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>防災題</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>緊急救護電話是？</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>防災題</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>一氧化碳中毒的症狀是？</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>皮膚發癢</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>頭暈嘔吐</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>流鼻血</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>防災題</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>家庭防災計畫應包含？</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>逃生路線</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>娛樂活動</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>購物清單</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
